--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -502,7 +502,7 @@
         <v>0.211</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>12.29247472223965</v>
+        <v>12.29247472224007</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
@@ -516,7 +516,7 @@
         <v>-0.023</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-14.4250921988321</v>
+        <v>-14.42509219883258</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="n">
@@ -535,7 +535,7 @@
         <v>0.209</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>12.22631318621949</v>
+        <v>12.2263131862199</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
@@ -549,7 +549,7 @@
         <v>-0.023</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-14.17715847897538</v>
+        <v>-14.17715847897586</v>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="n">
@@ -568,7 +568,7 @@
         <v>0.207</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>12.05908022898458</v>
+        <v>12.05908022898497</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
@@ -582,7 +582,7 @@
         <v>-0.022</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-13.87259869948276</v>
+        <v>-13.87259869948322</v>
       </c>
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="n">
@@ -601,7 +601,7 @@
         <v>0.206</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>11.83859642965048</v>
+        <v>11.83859642965088</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
@@ -615,7 +615,7 @@
         <v>-0.021</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-13.52820174262121</v>
+        <v>-13.52820174262167</v>
       </c>
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="n">
@@ -634,7 +634,7 @@
         <v>0.203</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>11.57542347461299</v>
+        <v>11.57542347461338</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
@@ -648,7 +648,7 @@
         <v>-0.021</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-13.13743001987957</v>
+        <v>-13.13743001988002</v>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="n">
@@ -667,7 +667,7 @@
         <v>0.203</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>11.25866014802901</v>
+        <v>11.25866014802939</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
@@ -681,7 +681,7 @@
         <v>-0.02</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-12.69562777247773</v>
+        <v>-12.69562777247815</v>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="2" t="n">
@@ -700,7 +700,7 @@
         <v>0.201</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>10.88291593808658</v>
+        <v>10.88291593808695</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
@@ -714,7 +714,7 @@
         <v>-0.02</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-12.19814494855515</v>
+        <v>-12.19814494855556</v>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="n">
@@ -733,7 +733,7 @@
         <v>0.201</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>10.44975834218717</v>
+        <v>10.44975834218753</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
@@ -747,7 +747,7 @@
         <v>-0.02</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-11.64635634399622</v>
+        <v>-11.64635634399661</v>
       </c>
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="n">
@@ -766,7 +766,7 @@
         <v>0.201</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>9.948463228161947</v>
+        <v>9.948463228162277</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
@@ -780,7 +780,7 @@
         <v>-0.019</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-11.03012813337764</v>
+        <v>-11.03012813337801</v>
       </c>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="n">
@@ -799,7 +799,7 @@
         <v>0.201</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>9.372171796260831</v>
+        <v>9.372171796261151</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
@@ -813,7 +813,7 @@
         <v>-0.02</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-10.34145699087595</v>
+        <v>-10.3414569908763</v>
       </c>
       <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="n">
@@ -832,7 +832,7 @@
         <v>0.202</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>8.707727529671812</v>
+        <v>8.707727529672109</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
@@ -846,7 +846,7 @@
         <v>-0.02</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-9.58179400026094</v>
+        <v>-9.581794000261258</v>
       </c>
       <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="n">
@@ -865,7 +865,7 @@
         <v>0.205</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>7.963005369175653</v>
+        <v>7.963005369175924</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
@@ -879,7 +879,7 @@
         <v>-0.021</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-8.757850088874196</v>
+        <v>-8.757850088874498</v>
       </c>
       <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="2" t="n">
@@ -898,7 +898,7 @@
         <v>0.207</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>7.142690042317786</v>
+        <v>7.142690042318028</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
@@ -912,7 +912,7 @@
         <v>-0.023</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-7.881650859630767</v>
+        <v>-7.881650859631035</v>
       </c>
       <c r="J14" s="2" t="inlineStr"/>
       <c r="K14" s="2" t="n">
@@ -931,7 +931,7 @@
         <v>0.211</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>6.275925256760313</v>
+        <v>6.275925256760522</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
@@ -945,7 +945,7 @@
         <v>-0.024</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-6.975567820159306</v>
+        <v>-6.975567820159539</v>
       </c>
       <c r="J15" s="2" t="inlineStr"/>
       <c r="K15" s="2" t="n">
@@ -964,7 +964,7 @@
         <v>0.216</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>5.3882134097383</v>
+        <v>5.388213409738477</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
@@ -978,7 +978,7 @@
         <v>-0.029</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-6.071319748417118</v>
+        <v>-6.071319748417319</v>
       </c>
       <c r="J16" s="2" t="inlineStr"/>
       <c r="K16" s="2" t="n">
@@ -997,7 +997,7 @@
         <v>0.224</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.525531330681233</v>
+        <v>4.525531330681383</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
@@ -1011,7 +1011,7 @@
         <v>-0.034</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-5.19881305349666</v>
+        <v>-5.198813053496835</v>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="n">
@@ -1030,7 +1030,7 @@
         <v>0.236</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>3.729926621684334</v>
+        <v>3.729926621684458</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
@@ -1044,7 +1044,7 @@
         <v>-0.04</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-4.392249241499417</v>
+        <v>-4.392249241499567</v>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="n">
@@ -1063,7 +1063,7 @@
         <v>0.252</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>3.043118693530083</v>
+        <v>3.043118693530186</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
@@ -1077,7 +1077,7 @@
         <v>-0.047</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-3.665423556211271</v>
+        <v>-3.665423556211394</v>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="n">
@@ -1096,7 +1096,7 @@
         <v>0.272</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>2.496937880495121</v>
+        <v>2.4969378804952</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
@@ -1110,7 +1110,7 @@
         <v>-0.056</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-3.039756544798613</v>
+        <v>-3.039756544798716</v>
       </c>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="n">
@@ -1129,7 +1129,7 @@
         <v>0.297</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>2.089316474748596</v>
+        <v>2.089316474748668</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
@@ -1143,7 +1143,7 @@
         <v>-0.064</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-2.520131923556174</v>
+        <v>-2.520131923556259</v>
       </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="n">
@@ -1162,7 +1162,7 @@
         <v>0.323</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1.801387052347417</v>
+        <v>1.801387052347478</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
@@ -1176,7 +1176,7 @@
         <v>-0.075</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-2.092273487682112</v>
+        <v>-2.09227348768218</v>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="n">
@@ -1195,7 +1195,7 @@
         <v>0.349</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1.613046491721743</v>
+        <v>1.613046491721798</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
@@ -1209,7 +1209,7 @@
         <v>-0.09</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-1.745128234808983</v>
+        <v>-1.74512823480904</v>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="n">
@@ -1228,7 +1228,7 @@
         <v>0.375</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1.50029394880552</v>
+        <v>1.500293948805571</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
@@ -1242,7 +1242,7 @@
         <v>-0.115</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-1.477740094487179</v>
+        <v>-1.477740094487228</v>
       </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="n">
@@ -1261,7 +1261,7 @@
         <v>0.4</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1.449667290117321</v>
+        <v>1.449667290117369</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
@@ -1275,7 +1275,7 @@
         <v>-0.15</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-1.278640747452546</v>
+        <v>-1.278640747452588</v>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="n">
@@ -1294,7 +1294,7 @@
         <v>0.424</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1.434515208913957</v>
+        <v>1.434515208914005</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
@@ -1315,7 +1315,7 @@
         <v>-0.194</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>-1.154685507552896</v>
+        <v>-1.154685507552937</v>
       </c>
       <c r="M26" s="2" t="inlineStr"/>
     </row>
@@ -1327,7 +1327,7 @@
         <v>0.447</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>1.445035720034163</v>
+        <v>1.445035720034212</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
@@ -1360,7 +1360,7 @@
         <v>0.469</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1.477810971513847</v>
+        <v>1.477810971513788</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
@@ -1393,7 +1393,7 @@
         <v>0.488</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>1.501349257167413</v>
+        <v>1.501349257167358</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
@@ -1961,7 +1961,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>0.03671273152457497</v>
+        <v>0.0367127315245761</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="n">
@@ -1994,7 +1994,7 @@
         <v>0.099</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>0.03685089868829444</v>
+        <v>0.03685089868829564</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="n">
@@ -2027,7 +2027,7 @@
         <v>0.099</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.03703859876255194</v>
+        <v>0.03703859876255305</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="n">
@@ -2060,7 +2060,7 @@
         <v>0.098</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0.03637336189125795</v>
+        <v>0.03637336189125917</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="n">

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-1.xlsx
@@ -451,45 +451,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 1 Potential (V)</t>
+          <t>Oxidation Peak 2 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 1 Current (uAmps)</t>
+          <t>Oxidation Peak 2 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr"/>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 1 Potential (V)</t>
+          <t>Reduction Peak 2 Potential (V)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 1 Current (uAmps)</t>
+          <t>Reduction Peak 2 Current (uAmps)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr"/>
@@ -499,10 +499,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.211</v>
+        <v>0.208</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>12.29247472224007</v>
+        <v>12.28247428355489</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
@@ -516,7 +516,7 @@
         <v>-0.023</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-14.42509219883258</v>
+        <v>14.4299068900167</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="n">
@@ -535,7 +535,7 @@
         <v>0.209</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>12.2263131862199</v>
+        <v>12.23942853409465</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
@@ -546,10 +546,10 @@
       </c>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="n">
-        <v>-0.023</v>
+        <v>-0.022</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-14.17715847897586</v>
+        <v>14.17396117836076</v>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="n">
@@ -568,7 +568,7 @@
         <v>0.207</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>12.05908022898497</v>
+        <v>12.04458406497</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
@@ -579,10 +579,10 @@
       </c>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="n">
-        <v>-0.022</v>
+        <v>-0.021</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-13.87259869948322</v>
+        <v>13.90232267231425</v>
       </c>
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="n">
@@ -601,7 +601,7 @@
         <v>0.206</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>11.83859642965088</v>
+        <v>11.88465138056504</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
@@ -612,10 +612,10 @@
       </c>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="n">
-        <v>-0.021</v>
+        <v>-0.02</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-13.52820174262167</v>
+        <v>13.55790167905222</v>
       </c>
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="n">
@@ -631,10 +631,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.203</v>
+        <v>0.204</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>11.57542347461338</v>
+        <v>11.61907313646388</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
@@ -645,10 +645,10 @@
       </c>
       <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="n">
-        <v>-0.021</v>
+        <v>-0.02</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-13.13743001988002</v>
+        <v>13.14269668986877</v>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="n">
@@ -667,7 +667,7 @@
         <v>0.203</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>11.25866014802939</v>
+        <v>11.33606327423824</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
@@ -678,10 +678,10 @@
       </c>
       <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.019</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-12.69562777247815</v>
+        <v>12.72954424090658</v>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="2" t="n">
@@ -700,7 +700,7 @@
         <v>0.201</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>10.88291593808695</v>
+        <v>10.94024218741603</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
@@ -711,10 +711,10 @@
       </c>
       <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.019</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-12.19814494855556</v>
+        <v>12.2081905732494</v>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="n">
@@ -730,10 +730,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.201</v>
+        <v>0.2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>10.44975834218753</v>
+        <v>10.49335279330408</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
@@ -744,10 +744,10 @@
       </c>
       <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.017</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-11.64635634399661</v>
+        <v>11.66619390582356</v>
       </c>
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="n">
@@ -763,10 +763,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.201</v>
+        <v>0.2</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>9.948463228162277</v>
+        <v>9.989180059770485</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
@@ -777,10 +777,10 @@
       </c>
       <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="n">
-        <v>-0.019</v>
+        <v>-0.018</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-11.03012813337801</v>
+        <v>11.13406252099057</v>
       </c>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="n">
@@ -796,10 +796,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.201</v>
+        <v>0.202</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>9.372171796261151</v>
+        <v>9.442106378722332</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
@@ -810,10 +810,10 @@
       </c>
       <c r="G11" s="2" t="inlineStr"/>
       <c r="H11" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.019</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-10.3414569908763</v>
+        <v>10.44109959962595</v>
       </c>
       <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="n">
@@ -829,10 +829,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.202</v>
+        <v>0.201</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>8.707727529672109</v>
+        <v>8.727711935773936</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
@@ -846,7 +846,7 @@
         <v>-0.02</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-9.581794000261258</v>
+        <v>9.636424189308295</v>
       </c>
       <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="n">
@@ -862,10 +862,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.205</v>
+        <v>0.204</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>7.963005369175924</v>
+        <v>7.995530080699384</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
@@ -879,7 +879,7 @@
         <v>-0.021</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-8.757850088874498</v>
+        <v>8.795862169555418</v>
       </c>
       <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="2" t="n">
@@ -895,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.207</v>
+        <v>0.206</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>7.142690042318028</v>
+        <v>7.178543344652351</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
@@ -912,7 +912,7 @@
         <v>-0.023</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-7.881650859631035</v>
+        <v>7.922638025033064</v>
       </c>
       <c r="J14" s="2" t="inlineStr"/>
       <c r="K14" s="2" t="n">
@@ -928,10 +928,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.211</v>
+        <v>0.21</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>6.275925256760522</v>
+        <v>6.324216384831836</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
@@ -942,10 +942,10 @@
       </c>
       <c r="G15" s="2" t="inlineStr"/>
       <c r="H15" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.025</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-6.975567820159539</v>
+        <v>7.047874162004849</v>
       </c>
       <c r="J15" s="2" t="inlineStr"/>
       <c r="K15" s="2" t="n">
@@ -964,7 +964,7 @@
         <v>0.216</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>5.388213409738477</v>
+        <v>5.474458379341144</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
@@ -975,10 +975,10 @@
       </c>
       <c r="G16" s="2" t="inlineStr"/>
       <c r="H16" s="2" t="n">
-        <v>-0.029</v>
+        <v>-0.028</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-6.071319748417319</v>
+        <v>6.169413515608566</v>
       </c>
       <c r="J16" s="2" t="inlineStr"/>
       <c r="K16" s="2" t="n">
@@ -994,10 +994,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.224</v>
+        <v>0.226</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.525531330681383</v>
+        <v>4.613140836746967</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
@@ -1008,10 +1008,10 @@
       </c>
       <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="n">
-        <v>-0.034</v>
+        <v>-0.033</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-5.198813053496835</v>
+        <v>5.276452744710003</v>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="n">
@@ -1027,10 +1027,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>3.729926621684458</v>
+        <v>3.852713992005792</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
@@ -1041,10 +1041,10 @@
       </c>
       <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.041</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-4.392249241499567</v>
+        <v>4.467244904763534</v>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="n">
@@ -1063,7 +1063,7 @@
         <v>0.252</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>3.043118693530186</v>
+        <v>3.116681144858917</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
@@ -1074,10 +1074,10 @@
       </c>
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="n">
-        <v>-0.047</v>
+        <v>-0.05</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-3.665423556211394</v>
+        <v>3.73357105880349</v>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="n">
@@ -1093,10 +1093,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.272</v>
+        <v>0.274</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>2.4969378804952</v>
+        <v>2.613789259074026</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
@@ -1110,7 +1110,7 @@
         <v>-0.056</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-3.039756544798716</v>
+        <v>3.10747394506506</v>
       </c>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="n">
@@ -1126,10 +1126,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.297</v>
+        <v>0.3</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>2.089316474748668</v>
+        <v>2.173599980876033</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
@@ -1140,10 +1140,10 @@
       </c>
       <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.065</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-2.520131923556259</v>
+        <v>2.593768218348115</v>
       </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="n">
@@ -1159,10 +1159,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1.801387052347478</v>
+        <v>1.869314192418649</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
@@ -1173,10 +1173,10 @@
       </c>
       <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="n">
-        <v>-0.075</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-2.09227348768218</v>
+        <v>2.170378073273783</v>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="n">
@@ -1192,10 +1192,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1.613046491721798</v>
+        <v>1.676910847509439</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
@@ -1206,10 +1206,10 @@
       </c>
       <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="n">
-        <v>-0.09</v>
+        <v>-0.102</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-1.74512823480904</v>
+        <v>1.838477950405344</v>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="n">
@@ -1225,10 +1225,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1.500293948805571</v>
+        <v>1.492351205742975</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
@@ -1239,10 +1239,10 @@
       </c>
       <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="n">
-        <v>-0.115</v>
+        <v>-0.105</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-1.477740094487228</v>
+        <v>1.59613232478097</v>
       </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="n">
@@ -1258,10 +1258,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1.449667290117369</v>
+        <v>1.538926152987848</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
@@ -1272,10 +1272,10 @@
       </c>
       <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="n">
-        <v>-0.15</v>
+        <v>-0.153</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-1.278640747452588</v>
+        <v>1.334851360268689</v>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="n">
@@ -1291,17 +1291,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1.434515208914005</v>
+        <v>1.470930934280862</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v/>
+        <v>0.111</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v/>
+        <v>0.1999603463367664</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="n">
@@ -1312,10 +1312,10 @@
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="n">
-        <v>-0.194</v>
+        <v>-0.204</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>-1.154685507552937</v>
+        <v>1.292551039351696</v>
       </c>
       <c r="M26" s="2" t="inlineStr"/>
     </row>
@@ -1324,17 +1324,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>1.445035720034212</v>
+        <v>1.502077750379353</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
-        <v/>
+        <v>0.109</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v/>
+        <v>0.1688811353177411</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" s="2" t="n">
@@ -1357,17 +1357,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1.477810971513788</v>
+        <v>1.541118668403502</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
-        <v/>
+        <v>0.108</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v/>
+        <v>0.1467436875603251</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
       <c r="H28" s="2" t="n">
@@ -1390,17 +1390,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.488</v>
+        <v>0.491</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>1.501349257167358</v>
+        <v>1.587190917401339</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
-        <v/>
+        <v>0.107</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v/>
+        <v>0.1332393473266339</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
       <c r="H29" s="2" t="n">
@@ -1430,10 +1430,10 @@
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
-        <v/>
+        <v>0.106</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v/>
+        <v>0.1111726748084014</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
       <c r="H30" s="2" t="n">
@@ -1463,10 +1463,10 @@
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
-        <v/>
+        <v>0.105</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v/>
+        <v>0.09708798547979564</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="n">
@@ -1496,10 +1496,10 @@
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
-        <v/>
+        <v>0.105</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v/>
+        <v>0.09582104788112233</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="n">
@@ -1529,10 +1529,10 @@
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
-        <v/>
+        <v>0.105</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v/>
+        <v>0.09119726390599769</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
       <c r="H33" s="2" t="n">
@@ -1562,10 +1562,10 @@
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
-        <v/>
+        <v>0.105</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v/>
+        <v>0.0875210949970312</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
       <c r="H34" s="2" t="n">
@@ -1595,10 +1595,10 @@
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
-        <v/>
+        <v>0.104</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v/>
+        <v>0.08262382075094299</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
       <c r="H35" s="2" t="n">
@@ -1628,10 +1628,10 @@
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
-        <v/>
+        <v>0.102</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v/>
+        <v>0.08276540393027071</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="n">
@@ -1661,10 +1661,10 @@
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
-        <v/>
+        <v>0.103</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v/>
+        <v>0.0829121025512905</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="n">
@@ -1694,10 +1694,10 @@
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v/>
+        <v>0.102</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v/>
+        <v>0.08624750144403176</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="n">
@@ -1727,10 +1727,10 @@
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
-        <v/>
+        <v>0.101</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v/>
+        <v>0.09209878940433538</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
       <c r="H39" s="2" t="n">
@@ -1760,10 +1760,10 @@
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
-        <v/>
+        <v>0.1</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v/>
+        <v>0.08228521452229254</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="n">
@@ -1793,10 +1793,10 @@
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
-        <v/>
+        <v>0.098</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v/>
+        <v>0.07970649002936556</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="n">
@@ -1826,10 +1826,10 @@
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v/>
+        <v>0.101</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v/>
+        <v>0.0790553368104662</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="n">
@@ -1859,10 +1859,10 @@
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
-        <v/>
+        <v>0.098</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v/>
+        <v>0.0771673679927796</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="n">
@@ -1892,10 +1892,10 @@
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
-        <v/>
+        <v>0.098</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v/>
+        <v>0.07619229881730849</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
       <c r="H44" s="2" t="n">
@@ -1925,10 +1925,10 @@
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
-        <v/>
+        <v>0.097</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v/>
+        <v>0.07467128131315781</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
       <c r="H45" s="2" t="n">
@@ -1958,10 +1958,10 @@
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v>0.1</v>
+        <v>0.097</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>0.0367127315245761</v>
+        <v>0.07562979369262851</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="n">
@@ -1991,10 +1991,10 @@
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>0.099</v>
+        <v>0.097</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>0.03685089868829564</v>
+        <v>0.07490675168879152</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="n">
@@ -2024,10 +2024,10 @@
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
-        <v>0.099</v>
+        <v>0.097</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.03703859876255305</v>
+        <v>0.07586378908813102</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="n">
@@ -2057,10 +2057,10 @@
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
-        <v>0.098</v>
+        <v>0.096</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0.03637336189125917</v>
+        <v>0.07556530551420465</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="n">

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-1.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,8 @@
     <col width="32" customWidth="1" min="9" max="9"/>
     <col width="30" customWidth="1" min="11" max="11"/>
     <col width="32" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+    <col width="32" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,6 +495,17 @@
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 3 Potential (V)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 3 Current (uAmps)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -526,6 +539,13 @@
         <v/>
       </c>
       <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -559,6 +579,13 @@
         <v/>
       </c>
       <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -592,6 +619,13 @@
         <v/>
       </c>
       <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -625,6 +659,13 @@
         <v/>
       </c>
       <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -658,6 +699,13 @@
         <v/>
       </c>
       <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -691,6 +739,13 @@
         <v/>
       </c>
       <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -724,6 +779,13 @@
         <v/>
       </c>
       <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -757,6 +819,13 @@
         <v/>
       </c>
       <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -790,6 +859,13 @@
         <v/>
       </c>
       <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -823,6 +899,13 @@
         <v/>
       </c>
       <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -856,6 +939,13 @@
         <v/>
       </c>
       <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -889,6 +979,13 @@
         <v/>
       </c>
       <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -922,6 +1019,13 @@
         <v/>
       </c>
       <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -955,6 +1059,13 @@
         <v/>
       </c>
       <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -988,6 +1099,13 @@
         <v/>
       </c>
       <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1021,6 +1139,13 @@
         <v/>
       </c>
       <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1054,6 +1179,13 @@
         <v/>
       </c>
       <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1087,6 +1219,13 @@
         <v/>
       </c>
       <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1120,6 +1259,13 @@
         <v/>
       </c>
       <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1153,6 +1299,13 @@
         <v/>
       </c>
       <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1186,6 +1339,13 @@
         <v/>
       </c>
       <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1219,6 +1379,13 @@
         <v/>
       </c>
       <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1252,6 +1419,13 @@
         <v/>
       </c>
       <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1285,6 +1459,13 @@
         <v/>
       </c>
       <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1318,6 +1499,13 @@
         <v>1.292551039351696</v>
       </c>
       <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1351,6 +1539,13 @@
         <v/>
       </c>
       <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1384,6 +1579,13 @@
         <v/>
       </c>
       <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1417,6 +1619,13 @@
         <v/>
       </c>
       <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1450,6 +1659,13 @@
         <v/>
       </c>
       <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1483,6 +1699,13 @@
         <v/>
       </c>
       <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1516,6 +1739,13 @@
         <v/>
       </c>
       <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1549,6 +1779,13 @@
         <v/>
       </c>
       <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1582,6 +1819,13 @@
         <v/>
       </c>
       <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1615,6 +1859,13 @@
         <v/>
       </c>
       <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1648,6 +1899,13 @@
         <v/>
       </c>
       <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1681,6 +1939,13 @@
         <v/>
       </c>
       <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1714,6 +1979,13 @@
         <v/>
       </c>
       <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>0.000631442242925731</v>
+      </c>
+      <c r="P38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1747,6 +2019,13 @@
         <v/>
       </c>
       <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>6.629587410489357e-06</v>
+      </c>
+      <c r="P39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1780,6 +2059,13 @@
         <v/>
       </c>
       <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>0.0005022647040147793</v>
+      </c>
+      <c r="P40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1813,6 +2099,13 @@
         <v/>
       </c>
       <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1846,6 +2139,13 @@
         <v/>
       </c>
       <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1879,6 +2179,13 @@
         <v/>
       </c>
       <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1912,6 +2219,13 @@
         <v/>
       </c>
       <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1945,6 +2259,13 @@
         <v/>
       </c>
       <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1978,6 +2299,13 @@
         <v/>
       </c>
       <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2011,6 +2339,13 @@
         <v/>
       </c>
       <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2044,6 +2379,13 @@
         <v/>
       </c>
       <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2077,6 +2419,13 @@
         <v/>
       </c>
       <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P49" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
